--- a/biology/Botanique/Monarda/Monarda.xlsx
+++ b/biology/Botanique/Monarda/Monarda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Monarda regroupe 16 espèces de plantes herbacées de la famille des Lamiacées, originaires surtout d'Amérique du Nord. Certaines sont classés comme plantes annuelles, mais la plupart sont considérées comme des plantes vivaces. Ce sont aussi majoritairement des espèces aromatiques, dont le feuillage dégage différentes odeurs mentholées selon l'espèce.
 Ce genre fut attribué par Nicolas Monardes qui décrivit dans son livre en 1574 plusieurs espèces de monardes.
@@ -512,7 +524,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivées pour leur côté aromatique et médicinal, elles sont très prisées pour leur floraison spectaculaire et intéressante. Les monardes sont des plantes atteignant en général lors du stade adulte une taille comprise en 1,5 à 2 mètres, avec un port buissonnant et érigé. Les feuilles sont opposées, pointues, simples, caduques, et souvent aromatiques. La floraison a lieu dès le début de l'été jusqu'en automne. Les fleurs assez étranges, sont regroupés en ombelle le long du pédoncule, tubulaires avec une symétrie.
 </t>
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Monarda a des préférences pour un sol bien drainé et riche en éléments minéraux. Ce genre de plante apprécie et tolère sans problème une exposition ensoleillée. Cependant il faut surveiller les premières pousses qui sont très appréciées par les mollusques rampants. Sinon les monardes peuvent être touchées par la mosaïque du tabac, qui peut s'avérer à long terme fatal pour la plante. Niveau entretien, la plante demande juste à être rabattue complètement après les premiers froids ou à la fin de l'hiver.
 Quant à la multiplication, elle s'effectue facilement par bouturage, comme la majorité des espèces de cette famille. La division de touffe durant la mauvaise saison est aussi une bonne solution. Le semis est également pratiqué pour les espèces dites botaniques.
@@ -575,9 +591,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 janv. 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 janv. 2012) :
 Monarda bartlettii Standl., Publ. Field Mus. Nat. Hist. (1937)
 Monarda bradburiana Beck (1826)
 Monarda citriodora Cerv. ex Lag. (1816)
@@ -644,9 +662,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des monardes d'Amérique du nord (horsemint) sont utilisées en infusion par les tribus Winnebago et Dakota comme stimulant cardiaque[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des monardes d'Amérique du nord (horsemint) sont utilisées en infusion par les tribus Winnebago et Dakota comme stimulant cardiaque.
 Les espèces M. didyma et M. fistulosa furent pendant longtemps utilisées comme plante médicinale au cours des temps anciens. Bien utilisées, elles peuvent s'avérer efficaces contre les infections et les légères blessures, elles sont un puissant antiseptique. Ces deux espèces peuvent être utilisées sous forme de thé. Cette utilisation est aussi un très bon stimulant[réf. nécessaire].
 Les effets de la monarde sont très proche de l'origan. Ils furent utilisés traditionnellement et principalement en Amérique du Nord, dans leur pays d'origine. Aujourd'hui, on retrouve les monardes répandues dans toute l'Amérique du Nord dans les près, les collines et montagnes, jusqu'à 5 000 pieds (1 600 m) d'altitude[réf. nécessaire].
 Certaines personnes utilisent aussi les feuilles de monarde sèches pour parfumer leur plats, dans la cuisine. En effet, elles sont considérées comme plante aromatique, en raison du parfum et des odeurs que le feuillage émet lorsqu'on le froisse avec ses doigts plusieurs fois[réf. nécessaire].
